--- a/www/family-member.xlsx
+++ b/www/family-member.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Church_sw\www\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3E3CE5DA-C6F0-40EC-9571-27A2B5956A5C}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A857260-610C-4F59-BA0E-C6F3C48060B4}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" xr2:uid="{DE735AAD-0481-4495-834E-518AC426859F}"/>
   </bookViews>
@@ -6815,7 +6815,7 @@
   <dimension ref="A1:G993"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
